--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1066782.78704384</v>
+        <v>1064081.682268886</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673442</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>39.7012200561197</v>
+        <v>81.2147724177193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>12.93042516928159</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.00402729331206</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>216.9513672457442</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>199.3492211929886</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,13 +981,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>34.47809986852373</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>62.09304949854808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.37860488577026</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>71.36059702410779</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83349180859359</v>
+        <v>83.8509743067879</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9453895236493</v>
+        <v>303.9453895236494</v>
       </c>
       <c r="I8" t="n">
-        <v>76.72779446896595</v>
+        <v>76.72779446896604</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.9092264837461</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0681132513132</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>123.7541816074672</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.30836251344152</v>
+        <v>94.30836251344154</v>
       </c>
       <c r="I9" t="n">
-        <v>35.61339202271516</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.43165252365257</v>
+        <v>30.43165252365263</v>
       </c>
       <c r="S9" t="n">
         <v>137.2048826855192</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>51.1623096191523</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>135.8295349335717</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4347951675532</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.97319914237102</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.19579633461515</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2964387944122</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.5579348066295</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>116.4998593851156</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>270.1915102239685</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.7519428711429</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064771</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4423155261876</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754681</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119342</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>86.72290329780353</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>235.8905539345552</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986266</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428254</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>195.2208281702713</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>220.4545102853548</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408063</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>135.3286065175522</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833947</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>134.3542165280278</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114.512007517665</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977361</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756223</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>132.6315337216686</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>55.5207962406047</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>103.982671376771</v>
       </c>
       <c r="C2" t="n">
-        <v>371.26277863231</v>
+        <v>103.982671376771</v>
       </c>
       <c r="D2" t="n">
-        <v>371.26277863231</v>
+        <v>103.982671376771</v>
       </c>
       <c r="E2" t="n">
-        <v>371.26277863231</v>
+        <v>103.982671376771</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158252</v>
+        <v>97.03717062756751</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487947</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487947</v>
+        <v>103.982671376771</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>103.982671376771</v>
       </c>
       <c r="X2" t="n">
-        <v>371.26277863231</v>
+        <v>103.982671376771</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>103.982671376771</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.1739116400124</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
         <v>15.00204697330559</v>
@@ -4413,46 +4413,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>525.654732181024</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U3" t="n">
-        <v>336.2349471645392</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V3" t="n">
-        <v>323.1739116400124</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W3" t="n">
-        <v>323.1739116400124</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>323.1739116400124</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y3" t="n">
-        <v>323.1739116400124</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.718007305293</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="C5" t="n">
-        <v>1782.718007305293</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="D5" t="n">
-        <v>1563.575212107571</v>
+        <v>755.4944040267628</v>
       </c>
       <c r="E5" t="n">
-        <v>1177.786959509327</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
-        <v>766.8010547197192</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G5" t="n">
         <v>350.7700094231265</v>
@@ -4574,13 +4574,13 @@
         <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
         <v>2021.630958172446</v>
@@ -4598,19 +4598,19 @@
         <v>2036.325171642783</v>
       </c>
       <c r="U5" t="n">
-        <v>1782.718007305293</v>
+        <v>1834.962321952896</v>
       </c>
       <c r="V5" t="n">
-        <v>1782.718007305293</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.718007305293</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.718007305293</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.718007305293</v>
+        <v>1113.760102633513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5261380428188</v>
+        <v>533.7044947829236</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0731087616919</v>
+        <v>359.2514655017966</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1386991004406</v>
+        <v>210.3170558405453</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9012440949851</v>
+        <v>210.3170558405453</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G6" t="n">
         <v>175.490692336986</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474382</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T6" t="n">
-        <v>1400.563316948358</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U6" t="n">
-        <v>1172.461727081622</v>
+        <v>1399.160796968469</v>
       </c>
       <c r="V6" t="n">
-        <v>1172.461727081622</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W6" t="n">
-        <v>1172.461727081622</v>
+        <v>909.7713320085245</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.461727081622</v>
+        <v>701.9198318029917</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.741475062887</v>
+        <v>701.9198318029917</v>
       </c>
     </row>
     <row r="7">
@@ -4750,22 +4750,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>321.1098614248255</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>264.1617756816232</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U7" t="n">
-        <v>264.1617756816232</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V7" t="n">
-        <v>264.1617756816232</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="W7" t="n">
-        <v>264.1617756816232</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X7" t="n">
-        <v>264.1617756816232</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y7" t="n">
         <v>43.36919653809305</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>512.8302210067866</v>
+        <v>1264.49319364188</v>
       </c>
       <c r="C8" t="n">
-        <v>512.8302210067866</v>
+        <v>1264.49319364188</v>
       </c>
       <c r="D8" t="n">
-        <v>512.8302210067866</v>
+        <v>906.22749503513</v>
       </c>
       <c r="E8" t="n">
-        <v>512.8302210067866</v>
+        <v>520.4392424368857</v>
       </c>
       <c r="F8" t="n">
-        <v>440.7488098713242</v>
+        <v>513.4937416876822</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7957878424418</v>
+        <v>428.7957878424419</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7802428690586</v>
+        <v>121.7802428690587</v>
       </c>
       <c r="I8" t="n">
-        <v>44.27742017313339</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="J8" t="n">
-        <v>156.5453885494321</v>
+        <v>156.5453885494317</v>
       </c>
       <c r="K8" t="n">
-        <v>375.5444889229408</v>
+        <v>375.5444889229402</v>
       </c>
       <c r="L8" t="n">
-        <v>684.1340000193456</v>
+        <v>684.1340000193445</v>
       </c>
       <c r="M8" t="n">
-        <v>1059.168727391407</v>
+        <v>1059.168727391406</v>
       </c>
       <c r="N8" t="n">
-        <v>1444.885717117918</v>
+        <v>1444.885717117917</v>
       </c>
       <c r="O8" t="n">
-        <v>1795.772071623106</v>
+        <v>1795.772071623105</v>
       </c>
       <c r="P8" t="n">
-        <v>2060.744456291608</v>
+        <v>2060.744456291606</v>
       </c>
       <c r="Q8" t="n">
-        <v>2211.55493553526</v>
+        <v>2211.554935535259</v>
       </c>
       <c r="R8" t="n">
-        <v>2213.871008656669</v>
+        <v>2213.871008656668</v>
       </c>
       <c r="S8" t="n">
-        <v>2213.871008656669</v>
+        <v>2213.871008656668</v>
       </c>
       <c r="T8" t="n">
-        <v>2213.871008656669</v>
+        <v>2003.861688976116</v>
       </c>
       <c r="U8" t="n">
-        <v>1960.266853857363</v>
+        <v>2003.861688976116</v>
       </c>
       <c r="V8" t="n">
-        <v>1629.203966513792</v>
+        <v>2003.861688976116</v>
       </c>
       <c r="W8" t="n">
-        <v>1276.435311243678</v>
+        <v>1651.093033706002</v>
       </c>
       <c r="X8" t="n">
-        <v>902.9695529825983</v>
+        <v>1651.093033706002</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.8302210067866</v>
+        <v>1651.093033706002</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.5157395101273</v>
+        <v>288.4728020701842</v>
       </c>
       <c r="C9" t="n">
-        <v>300.5157395101273</v>
+        <v>288.4728020701842</v>
       </c>
       <c r="D9" t="n">
-        <v>300.5157395101273</v>
+        <v>139.5383924089329</v>
       </c>
       <c r="E9" t="n">
-        <v>300.5157395101273</v>
+        <v>139.5383924089329</v>
       </c>
       <c r="F9" t="n">
-        <v>300.5157395101273</v>
+        <v>139.5383924089329</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5115156642008</v>
+        <v>139.5383924089329</v>
       </c>
       <c r="H9" t="n">
-        <v>80.25054342840123</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="I9" t="n">
-        <v>44.27742017313339</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="J9" t="n">
-        <v>92.3256060684844</v>
+        <v>92.32560606848429</v>
       </c>
       <c r="K9" t="n">
-        <v>252.6024334910153</v>
+        <v>252.6024334910151</v>
       </c>
       <c r="L9" t="n">
-        <v>514.4369485047782</v>
+        <v>514.4369485047778</v>
       </c>
       <c r="M9" t="n">
-        <v>839.3423457618867</v>
+        <v>839.342345761886</v>
       </c>
       <c r="N9" t="n">
-        <v>1187.255667013955</v>
+        <v>1187.255667013954</v>
       </c>
       <c r="O9" t="n">
-        <v>1483.308590376469</v>
+        <v>1483.308590376468</v>
       </c>
       <c r="P9" t="n">
-        <v>1701.584095618381</v>
+        <v>1701.584095618379</v>
       </c>
       <c r="Q9" t="n">
-        <v>1797.576293952199</v>
+        <v>1797.576293952198</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.837250999014</v>
+        <v>1766.837250999013</v>
       </c>
       <c r="S9" t="n">
-        <v>1628.246460407581</v>
+        <v>1628.246460407579</v>
       </c>
       <c r="T9" t="n">
-        <v>1433.617269092748</v>
+        <v>1433.617269092746</v>
       </c>
       <c r="U9" t="n">
-        <v>1205.517003440558</v>
+        <v>1205.517003440557</v>
       </c>
       <c r="V9" t="n">
-        <v>970.3648952088156</v>
+        <v>970.364895208814</v>
       </c>
       <c r="W9" t="n">
-        <v>716.127538480614</v>
+        <v>716.1275384806124</v>
       </c>
       <c r="X9" t="n">
-        <v>508.2760382750812</v>
+        <v>664.4484378552061</v>
       </c>
       <c r="Y9" t="n">
-        <v>300.5157395101273</v>
+        <v>456.6881390902522</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.6295184220497</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="C10" t="n">
-        <v>513.6295184220497</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="D10" t="n">
-        <v>513.6295184220497</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="E10" t="n">
-        <v>376.4279679840985</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="F10" t="n">
-        <v>229.5380204861881</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="G10" t="n">
-        <v>61.42206577148795</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42206577148795</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="I10" t="n">
-        <v>61.42206577148795</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="J10" t="n">
-        <v>44.27742017313339</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="K10" t="n">
-        <v>95.54660022226409</v>
+        <v>95.54660022226398</v>
       </c>
       <c r="L10" t="n">
-        <v>191.0592970264682</v>
+        <v>191.0592970264679</v>
       </c>
       <c r="M10" t="n">
-        <v>295.0223269524047</v>
+        <v>295.0223269524043</v>
       </c>
       <c r="N10" t="n">
-        <v>404.3708743014479</v>
+        <v>404.3708743014474</v>
       </c>
       <c r="O10" t="n">
-        <v>485.0588674359244</v>
+        <v>485.0588674359238</v>
       </c>
       <c r="P10" t="n">
-        <v>535.0394137095398</v>
+        <v>535.0394137095391</v>
       </c>
       <c r="Q10" t="n">
-        <v>513.6295184220497</v>
+        <v>535.0394137095391</v>
       </c>
       <c r="R10" t="n">
-        <v>513.6295184220497</v>
+        <v>535.0394137095391</v>
       </c>
       <c r="S10" t="n">
-        <v>513.6295184220497</v>
+        <v>535.0394137095391</v>
       </c>
       <c r="T10" t="n">
-        <v>513.6295184220497</v>
+        <v>311.507657351547</v>
       </c>
       <c r="U10" t="n">
-        <v>513.6295184220497</v>
+        <v>311.507657351547</v>
       </c>
       <c r="V10" t="n">
-        <v>513.6295184220497</v>
+        <v>311.507657351547</v>
       </c>
       <c r="W10" t="n">
-        <v>513.6295184220497</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="X10" t="n">
-        <v>513.6295184220497</v>
+        <v>44.27742017313336</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.6295184220497</v>
+        <v>44.27742017313336</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2091.829598443685</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.867081503273</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1176.993134082601</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>1176.993134082601</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>766.0072292929931</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035379</v>
+        <v>351.4317836226398</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I11" t="n">
         <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420317</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
         <v>2485.180661765425</v>
@@ -5057,34 +5057,34 @@
         <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
         <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.58813245566</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088269</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3242.034528744698</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>3242.034528744698</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2868.568770483618</v>
+        <v>2311.998004729285</v>
       </c>
       <c r="Y11" t="n">
-        <v>2478.429438507806</v>
+        <v>1921.858672753473</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
         <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469182</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>247.7399244450323</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723417</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.341506116231</v>
+        <v>977.3905023848067</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467297</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.3669296452379</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="C13" t="n">
-        <v>523.430746717331</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>373.3141073049953</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
         <v>78.51106622469182</v>
@@ -5197,52 +5197,52 @@
         <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457702</v>
+        <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888914</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
         <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551105</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551105</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.818336991393</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.133848785506</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.716678748546</v>
+        <v>834.2956531176421</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.727127850528</v>
+        <v>606.3061022196248</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.9345487069983</v>
+        <v>408.0726246373247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331903</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.38528403403</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061234</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937875</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113945</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134843</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2272.917537148665</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.917537148665</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2272.917537148665</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>813.3497091711303</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835334</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711975</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,19 +5911,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1963.123159128058</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1708.438670922171</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5981,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.779756989948</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1237.37303605497</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622256</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>916.3099000622256</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835333</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835333</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711975</v>
+        <v>194.8007783998299</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888044</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.724593490894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782969</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038355</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2311.25175375397</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2311.25175375397</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6786,19 +6786,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400722</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.537320215926</v>
+        <v>695.502065570312</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536383</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133957</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310025</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797744</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7403,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036841</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2312.991837396756</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396756</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740954</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101294</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>149.898275412219</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>238.1831822355674</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645670873</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08003731079438126</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561768</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.29152613729298</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372895</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597351</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>94.61558506065603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.15987277746899e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788231</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>50.29392045468899</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409392981</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>90.96364621897283</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>65.7299641038893</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823082</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13.28686650066013</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.4596884482297</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>46.6720694736168</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431576</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516659</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823138</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>48.39475227997597</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881289.4841087945</v>
+        <v>881289.4841087942</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958397.3307999942</v>
+        <v>958397.3307999946</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>963645.8537610653</v>
+        <v>963645.8537610652</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>963645.8537610652</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>963645.8537610653</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>963645.8537610653</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>963645.8537610652</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>963645.8537610653</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>963645.8537610652</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>963645.8537610652</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26323,13 +26323,13 @@
         <v>423807.2415876634</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918678</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
@@ -26338,16 +26338,16 @@
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217533</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217535</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861776</v>
+        <v>392510.2442861777</v>
       </c>
       <c r="D3" t="n">
-        <v>11460.51367737961</v>
+        <v>11460.51367737911</v>
       </c>
       <c r="E3" t="n">
-        <v>408312.2999680382</v>
+        <v>408312.2999680389</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051378</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557898</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854466</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487768</v>
+        <v>91259.95686487773</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.290350199771</v>
+        <v>2873.29035019984</v>
       </c>
       <c r="M3" t="n">
-        <v>106639.5191329071</v>
+        <v>106639.5191329072</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848898</v>
+        <v>43782.40655848923</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224857</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>171039.3658295524</v>
+        <v>171039.3658295525</v>
       </c>
       <c r="E4" t="n">
         <v>15947.46301458593</v>
@@ -26439,7 +26439,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26448,10 +26448,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86091.29148672911</v>
+        <v>86091.29148672908</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.7221621471</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-454780.2500946259</v>
       </c>
       <c r="C6" t="n">
-        <v>-179813.2985589843</v>
+        <v>-179813.2985589845</v>
       </c>
       <c r="D6" t="n">
-        <v>203507.8466783019</v>
+        <v>203507.8466783022</v>
       </c>
       <c r="E6" t="n">
-        <v>-86546.24355710787</v>
+        <v>-86756.20780095336</v>
       </c>
       <c r="F6" t="n">
-        <v>178837.341722225</v>
+        <v>178791.4367266589</v>
       </c>
       <c r="G6" t="n">
-        <v>335772.9447903753</v>
+        <v>335738.2068649398</v>
       </c>
       <c r="H6" t="n">
-        <v>346940.1810259545</v>
+        <v>346905.443100519</v>
       </c>
       <c r="I6" t="n">
-        <v>346940.1810259545</v>
+        <v>346905.443100519</v>
       </c>
       <c r="J6" t="n">
-        <v>297875.2362974098</v>
+        <v>297840.4983719742</v>
       </c>
       <c r="K6" t="n">
-        <v>255680.2241610768</v>
+        <v>255645.4862356412</v>
       </c>
       <c r="L6" t="n">
-        <v>344066.8906757547</v>
+        <v>344032.152750319</v>
       </c>
       <c r="M6" t="n">
-        <v>240300.6618930471</v>
+        <v>240265.9239676118</v>
       </c>
       <c r="N6" t="n">
-        <v>303157.7744674656</v>
+        <v>303123.0365420295</v>
       </c>
       <c r="O6" t="n">
-        <v>343916.8830487296</v>
+        <v>343882.1451232941</v>
       </c>
       <c r="P6" t="n">
-        <v>346940.1810259545</v>
+        <v>346905.4431005188</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>862.97486950219</v>
+        <v>862.9748695021896</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261631</v>
       </c>
       <c r="D4" t="n">
-        <v>553.4677521641673</v>
+        <v>553.467752164167</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>981.3883278086478</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247795</v>
+        <v>305.2407236247797</v>
       </c>
       <c r="D3" t="n">
-        <v>9.264204964505893</v>
+        <v>9.264204964505439</v>
       </c>
       <c r="E3" t="n">
-        <v>349.1953979923657</v>
+        <v>349.1953979923663</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>11.35279543800425</v>
+        <v>11.35279543800388</v>
       </c>
       <c r="E4" t="n">
-        <v>427.9205756444803</v>
+        <v>427.9205756444808</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>354.589369559843</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800425</v>
+        <v>11.35279543800388</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444803</v>
+        <v>427.9205756444808</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800425</v>
+        <v>11.35279543800388</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444803</v>
+        <v>427.9205756444808</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>373.3966131739383</v>
+        <v>331.8830608123387</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>63.64367339871053</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>7.535961812221245</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681428</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377111</v>
       </c>
       <c r="V3" t="n">
-        <v>219.8701619801437</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,13 +27555,13 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>105.7031924775546</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356658</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>137.7316743749388</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>51.7218715011272</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,13 +27701,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>110.5911125248602</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>143.5896462787563</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27822,10 +27822,10 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>164.9892138485324</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>35.73986807341271</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>335.5154487176036</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>327.9825175018057</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9646330484316</v>
+        <v>129.9646330484317</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9092264837461</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0681132513132</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>11.73312545907832</v>
+        <v>135.4873070665456</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.6133920227152</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>154.6106755843252</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>10.60442771299745</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4347951675532</v>
       </c>
       <c r="H10" t="n">
         <v>148.3912803373881</v>
@@ -28032,7 +28032,7 @@
         <v>108.6517721680248</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.97319914237107</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.19579633461521</v>
       </c>
       <c r="R10" t="n">
         <v>107.321691302451</v>
@@ -28062,7 +28062,7 @@
         <v>196.8965517281903</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2964387944122</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2341465824415</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.96506352996153</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.799680487441947e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29691,13 +29691,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.469245706541465</v>
+        <v>3.469245706541463</v>
       </c>
       <c r="H8" t="n">
-        <v>35.52941259211779</v>
+        <v>35.52941259211777</v>
       </c>
       <c r="I8" t="n">
-        <v>133.74809510144</v>
+        <v>133.7480951014399</v>
       </c>
       <c r="J8" t="n">
-        <v>294.4478927855739</v>
+        <v>294.4478927855737</v>
       </c>
       <c r="K8" t="n">
-        <v>441.3010635434742</v>
+        <v>441.301063543474</v>
       </c>
       <c r="L8" t="n">
-        <v>547.4729918350426</v>
+        <v>547.4729918350424</v>
       </c>
       <c r="M8" t="n">
-        <v>609.1691901687494</v>
+        <v>609.1691901687491</v>
       </c>
       <c r="N8" t="n">
-        <v>619.0261845324604</v>
+        <v>619.0261845324601</v>
       </c>
       <c r="O8" t="n">
-        <v>584.5288725380386</v>
+        <v>584.5288725380384</v>
       </c>
       <c r="P8" t="n">
-        <v>498.8818691577962</v>
+        <v>498.8818691577959</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.6395072922799</v>
+        <v>374.6395072922797</v>
       </c>
       <c r="R8" t="n">
-        <v>217.9250056135355</v>
+        <v>217.9250056135354</v>
       </c>
       <c r="S8" t="n">
-        <v>79.0554365378137</v>
+        <v>79.05543653781366</v>
       </c>
       <c r="T8" t="n">
-        <v>15.18662308038527</v>
+        <v>15.18662308038526</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2775396565233171</v>
+        <v>0.277539656523317</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.856210096665088</v>
+        <v>1.856210096665087</v>
       </c>
       <c r="H9" t="n">
-        <v>17.92708172305493</v>
+        <v>17.92708172305492</v>
       </c>
       <c r="I9" t="n">
-        <v>63.90898797728484</v>
+        <v>63.9089879772848</v>
       </c>
       <c r="J9" t="n">
-        <v>175.3711477730819</v>
+        <v>175.3711477730818</v>
       </c>
       <c r="K9" t="n">
-        <v>299.7372242496427</v>
+        <v>299.7372242496426</v>
       </c>
       <c r="L9" t="n">
-        <v>403.0336878745842</v>
+        <v>403.033687874584</v>
       </c>
       <c r="M9" t="n">
-        <v>470.3213038786935</v>
+        <v>470.3213038786932</v>
       </c>
       <c r="N9" t="n">
-        <v>482.769309307645</v>
+        <v>482.7693093076447</v>
       </c>
       <c r="O9" t="n">
-        <v>441.6396013762764</v>
+        <v>441.6396013762762</v>
       </c>
       <c r="P9" t="n">
-        <v>354.4547157394939</v>
+        <v>354.4547157394937</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.9435905848277</v>
+        <v>236.9435905848276</v>
       </c>
       <c r="R9" t="n">
-        <v>115.2478514403114</v>
+        <v>115.2478514403113</v>
       </c>
       <c r="S9" t="n">
-        <v>34.47828841831861</v>
+        <v>34.47828841831859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.481829293136909</v>
+        <v>7.481829293136905</v>
       </c>
       <c r="U9" t="n">
         <v>0.1221190853069137</v>
@@ -31677,43 +31677,43 @@
         <v>13.83589217005151</v>
       </c>
       <c r="I10" t="n">
-        <v>46.79870275923353</v>
+        <v>46.7987027592335</v>
       </c>
       <c r="J10" t="n">
-        <v>110.0222222970251</v>
+        <v>110.022222297025</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8003087252129</v>
+        <v>180.8003087252128</v>
       </c>
       <c r="L10" t="n">
-        <v>231.3621478006363</v>
+        <v>231.3621478006362</v>
       </c>
       <c r="M10" t="n">
-        <v>243.9389454889551</v>
+        <v>243.9389454889549</v>
       </c>
       <c r="N10" t="n">
-        <v>238.1386225955799</v>
+        <v>238.1386225955798</v>
       </c>
       <c r="O10" t="n">
-        <v>219.9595618200009</v>
+        <v>219.9595618200008</v>
       </c>
       <c r="P10" t="n">
-        <v>188.2134043255267</v>
+        <v>188.2134043255266</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3092052948307</v>
+        <v>130.3092052948306</v>
       </c>
       <c r="R10" t="n">
-        <v>69.97170007471853</v>
+        <v>69.9717000747185</v>
       </c>
       <c r="S10" t="n">
-        <v>27.12004630878193</v>
+        <v>27.12004630878191</v>
       </c>
       <c r="T10" t="n">
-        <v>6.649150633869331</v>
+        <v>6.649150633869327</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08488277404939583</v>
+        <v>0.08488277404939579</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,37 +31753,37 @@
         <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>308.7796796009655</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256413</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>219.8517740430757</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205469</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
@@ -31914,40 +31914,40 @@
         <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
         <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238242</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.4019882588876</v>
+        <v>113.4019882588875</v>
       </c>
       <c r="K8" t="n">
-        <v>221.2112124984936</v>
+        <v>221.2112124984934</v>
       </c>
       <c r="L8" t="n">
-        <v>311.7065768650554</v>
+        <v>311.7065768650552</v>
       </c>
       <c r="M8" t="n">
-        <v>378.8229569414767</v>
+        <v>378.8229569414764</v>
       </c>
       <c r="N8" t="n">
-        <v>389.6131209358695</v>
+        <v>389.6131209358692</v>
       </c>
       <c r="O8" t="n">
-        <v>354.4306611163519</v>
+        <v>354.4306611163516</v>
       </c>
       <c r="P8" t="n">
-        <v>267.6488734025266</v>
+        <v>267.6488734025264</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.3338174178304</v>
+        <v>152.3338174178302</v>
       </c>
       <c r="R8" t="n">
-        <v>2.339467799403366</v>
+        <v>2.339467799403252</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.53352110641518</v>
+        <v>48.53352110641509</v>
       </c>
       <c r="K9" t="n">
-        <v>161.8957852752837</v>
+        <v>161.8957852752836</v>
       </c>
       <c r="L9" t="n">
-        <v>264.47930809471</v>
+        <v>264.4793080947098</v>
       </c>
       <c r="M9" t="n">
-        <v>328.1872699566752</v>
+        <v>328.1872699566749</v>
       </c>
       <c r="N9" t="n">
-        <v>351.4275972243117</v>
+        <v>351.4275972243114</v>
       </c>
       <c r="O9" t="n">
-        <v>299.043356931832</v>
+        <v>299.0433569318317</v>
       </c>
       <c r="P9" t="n">
-        <v>220.4803083251637</v>
+        <v>220.4803083251635</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.96181649880623</v>
+        <v>96.96181649880612</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.78705055467748</v>
+        <v>51.78705055467739</v>
       </c>
       <c r="L10" t="n">
-        <v>96.47747151939805</v>
+        <v>96.47747151939794</v>
       </c>
       <c r="M10" t="n">
-        <v>105.01316154135</v>
+        <v>105.0131615413499</v>
       </c>
       <c r="N10" t="n">
-        <v>110.4530781303467</v>
+        <v>110.4530781303466</v>
       </c>
       <c r="O10" t="n">
-        <v>81.5030233681581</v>
+        <v>81.50302336815798</v>
       </c>
       <c r="P10" t="n">
-        <v>50.4854002763791</v>
+        <v>50.48540027637901</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9382406266065</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457672</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>77.71774012105745</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062166</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
         <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
         <v>382.2306297882114</v>
@@ -35580,13 +35580,13 @@
         <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793797</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295452</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
